--- a/planilhas_diarias/2021-01-26.xlsx
+++ b/planilhas_diarias/2021-01-26.xlsx
@@ -2313,7 +2313,7 @@
         <v>187</v>
       </c>
       <c r="D23">
-        <v>10.63</v>
+        <v>10.56</v>
       </c>
       <c r="E23">
         <v>11.24</v>
@@ -2325,19 +2325,19 @@
         <v>10.46</v>
       </c>
       <c r="H23">
-        <v>-5.173951828724354</v>
+        <v>-5.798394290811778</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
       </c>
       <c r="J23">
-        <v>2706</v>
+        <v>4107</v>
       </c>
       <c r="K23">
-        <v>642700</v>
+        <v>3710400</v>
       </c>
       <c r="L23">
-        <v>6908624</v>
+        <v>39562944</v>
       </c>
     </row>
     <row r="24" spans="1:12">

--- a/planilhas_diarias/2021-01-26.xlsx
+++ b/planilhas_diarias/2021-01-26.xlsx
@@ -5125,31 +5125,31 @@
         <v>187</v>
       </c>
       <c r="D97">
-        <v>17.29</v>
+        <v>16.79</v>
       </c>
       <c r="E97">
         <v>16.31</v>
       </c>
       <c r="F97">
-        <v>17.38</v>
+        <v>16.93</v>
       </c>
       <c r="G97">
         <v>16.31</v>
       </c>
       <c r="H97">
-        <v>6.07361963190183</v>
+        <v>3.006134969325144</v>
       </c>
       <c r="I97" t="s">
         <v>283</v>
       </c>
       <c r="J97">
-        <v>9107</v>
+        <v>2647</v>
       </c>
       <c r="K97">
-        <v>3604800</v>
+        <v>943100</v>
       </c>
       <c r="L97">
-        <v>61219193</v>
+        <v>15780943</v>
       </c>
     </row>
     <row r="98" spans="1:12">

--- a/planilhas_diarias/2021-01-26.xlsx
+++ b/planilhas_diarias/2021-01-26.xlsx
@@ -577,7 +577,7 @@
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>26/01/2021</t>
+    <t>30/12/1899</t>
   </si>
   <si>
     <t>Alliar ON NM</t>
@@ -1515,31 +1515,31 @@
         <v>187</v>
       </c>
       <c r="D2">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.02</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1.960784313725498</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>188</v>
       </c>
       <c r="J2">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>204100</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2193833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1553,31 +1553,31 @@
         <v>187</v>
       </c>
       <c r="D3">
-        <v>15.29</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.73</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.16</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-1.227390180878561</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>189</v>
       </c>
       <c r="J3">
-        <v>2819</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>570200</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8811083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1591,31 +1591,31 @@
         <v>187</v>
       </c>
       <c r="D4">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>15.21</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15.69</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>15.19</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.65016501650165</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>190</v>
       </c>
       <c r="J4">
-        <v>50639</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>28714100</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>444137473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1629,31 +1629,31 @@
         <v>187</v>
       </c>
       <c r="D5">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12.82</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11.79</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.132686084142385</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>191</v>
       </c>
       <c r="J5">
-        <v>22063</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9108200</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>112516212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1667,31 +1667,31 @@
         <v>187</v>
       </c>
       <c r="D6">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>25.99</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>26.82</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25.99</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.7957559681697645</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>192</v>
       </c>
       <c r="J6">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>245700</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6510622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1705,31 +1705,31 @@
         <v>187</v>
       </c>
       <c r="D7">
-        <v>40.83</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>40.43</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>41.45</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>40.32</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9144834404349912</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>193</v>
       </c>
       <c r="J7">
-        <v>6222</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1471600</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>60232087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1743,31 +1743,31 @@
         <v>187</v>
       </c>
       <c r="D8">
-        <v>26.07</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>26.17</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>27.24</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.4201680672268886</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>194</v>
       </c>
       <c r="J8">
-        <v>6410</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1229800</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>32698079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1781,31 +1781,31 @@
         <v>187</v>
       </c>
       <c r="D9">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8250825082508368</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>195</v>
       </c>
       <c r="J9">
-        <v>5127</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3758700</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>23168513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1819,31 +1819,31 @@
         <v>187</v>
       </c>
       <c r="D10">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>26.27</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.9541984732824428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>196</v>
       </c>
       <c r="J10">
-        <v>1118</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>177900</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4615123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1857,31 +1857,31 @@
         <v>187</v>
       </c>
       <c r="D11">
-        <v>34.03</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>34.79</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>35.35</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>33.81</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-2.071942446043162</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>197</v>
       </c>
       <c r="J11">
-        <v>2692</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>478800</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16513134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1895,31 +1895,31 @@
         <v>187</v>
       </c>
       <c r="D12">
-        <v>69.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>69.45</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>70.53</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>69.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.6764536557282654</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>198</v>
       </c>
       <c r="J12">
-        <v>1677</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>293200</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20470942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1933,31 +1933,31 @@
         <v>187</v>
       </c>
       <c r="D13">
-        <v>37.87</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>39.58</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>37.55</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-2.672834746851707</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>199</v>
       </c>
       <c r="J13">
-        <v>29112</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>9169900</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>355106531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1971,31 +1971,31 @@
         <v>187</v>
       </c>
       <c r="D14">
-        <v>59.3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>58.36</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>59.6</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1.280956447480786</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>200</v>
       </c>
       <c r="J14">
-        <v>36361</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12843700</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>758579910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2009,31 +2009,31 @@
         <v>187</v>
       </c>
       <c r="D15">
-        <v>32.79</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>33.96</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>34.24</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>32.61</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-2.671415850400708</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>201</v>
       </c>
       <c r="J15">
-        <v>93658</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>26922300</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>894812865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2047,31 +2047,31 @@
         <v>187</v>
       </c>
       <c r="D16">
-        <v>24.41</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>24.97</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>25.63</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>24.29</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-2.399040383846467</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>202</v>
       </c>
       <c r="J16">
-        <v>96185</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>58129800</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1443973479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2085,31 +2085,31 @@
         <v>187</v>
       </c>
       <c r="D17">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-3.211009174311939</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>203</v>
       </c>
       <c r="J17">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>350400</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>746170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2123,31 +2123,31 @@
         <v>187</v>
       </c>
       <c r="D18">
-        <v>28.45</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>28.42</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>28.95</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>28.28</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.105559465165368</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>204</v>
       </c>
       <c r="J18">
-        <v>27019</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6083100</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>174113554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2161,31 +2161,31 @@
         <v>187</v>
       </c>
       <c r="D19">
-        <v>9.06</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>9.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>9.02</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-1.307189542483652</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>205</v>
       </c>
       <c r="J19">
-        <v>12470</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7024200</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>64093201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2199,31 +2199,31 @@
         <v>187</v>
       </c>
       <c r="D20">
-        <v>140.59</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>134.44</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>140.59</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>133.02</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4.002071312324306</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>206</v>
       </c>
       <c r="J20">
-        <v>5945</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>958600</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>133170299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2237,31 +2237,31 @@
         <v>187</v>
       </c>
       <c r="D21">
-        <v>9.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>9.869999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-0.1011122345803821</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>207</v>
       </c>
       <c r="J21">
-        <v>7882</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2227100</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22046491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2275,31 +2275,31 @@
         <v>187</v>
       </c>
       <c r="D22">
-        <v>5.33</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-2.380952380952379</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>208</v>
       </c>
       <c r="J22">
-        <v>3560</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1890800</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>10296440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2313,31 +2313,31 @@
         <v>187</v>
       </c>
       <c r="D23">
-        <v>10.56</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>11.24</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>10.46</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-5.798394290811778</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
       </c>
       <c r="J23">
-        <v>4107</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3710400</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>39562944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2351,31 +2351,31 @@
         <v>187</v>
       </c>
       <c r="D24">
-        <v>112.08</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>112.91</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>114.69</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>111.7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-0.9719031631030293</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>210</v>
       </c>
       <c r="J24">
-        <v>187076</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>8011802</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>904521695.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2389,31 +2389,31 @@
         <v>187</v>
       </c>
       <c r="D25">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>9.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>9.59</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-1.92307692307692</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>211</v>
       </c>
       <c r="J25">
-        <v>5172</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20776200</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>197907498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2427,31 +2427,31 @@
         <v>187</v>
       </c>
       <c r="D26">
-        <v>70.17</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>70.7</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>72.16</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>69.84</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-0.9877240016932451</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
       </c>
       <c r="J26">
-        <v>8749</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1397900</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>99325082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2465,31 +2465,31 @@
         <v>187</v>
       </c>
       <c r="D27">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>24.33</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>9.569377990430622</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>213</v>
       </c>
       <c r="J27">
-        <v>64362</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>32466000</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>761083020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2503,31 +2503,31 @@
         <v>187</v>
       </c>
       <c r="D28">
-        <v>20.41</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>20.63</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>20.37</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-1.353310778153703</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>214</v>
       </c>
       <c r="J28">
-        <v>26828</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>9410100</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>193453441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2541,31 +2541,31 @@
         <v>187</v>
       </c>
       <c r="D29">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>24.38</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>23.53</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-1.499375260308217</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>215</v>
       </c>
       <c r="J29">
-        <v>9233</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1962500</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>46740238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2579,31 +2579,31 @@
         <v>187</v>
       </c>
       <c r="D30">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>9.15</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.853871319520174</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>216</v>
       </c>
       <c r="J30">
-        <v>45877</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>19689000</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>186781477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2617,31 +2617,31 @@
         <v>187</v>
       </c>
       <c r="D31">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>9.32</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>8.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2.815315315315315</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>217</v>
       </c>
       <c r="J31">
-        <v>7079</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2079300</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>19056821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2655,31 +2655,31 @@
         <v>187</v>
       </c>
       <c r="D32">
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>13.87</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>13.19</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>-1.405325443786979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>218</v>
       </c>
       <c r="J32">
-        <v>6444</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>2182300</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>29541104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2693,31 +2693,31 @@
         <v>187</v>
       </c>
       <c r="D33">
-        <v>85.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>90.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>90.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>84.98</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-3.874146232224843</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>219</v>
       </c>
       <c r="J33">
-        <v>16209</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>4095400</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>361958890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2731,31 +2731,31 @@
         <v>187</v>
       </c>
       <c r="D34">
-        <v>10.58</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>10.56</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0.8434864104967185</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>220</v>
       </c>
       <c r="J34">
-        <v>5748</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1218300</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>12993367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2769,31 +2769,31 @@
         <v>187</v>
       </c>
       <c r="D35">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>16.44</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-4.059040590405916</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>221</v>
       </c>
       <c r="J35">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>204000</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>3256854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2807,31 +2807,31 @@
         <v>187</v>
       </c>
       <c r="D36">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-14.40568475452197</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>222</v>
       </c>
       <c r="J36">
-        <v>23195</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>7109700</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>202084897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2845,31 +2845,31 @@
         <v>187</v>
       </c>
       <c r="D37">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>12.47</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>12.66</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-2.877697841726614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>223</v>
       </c>
       <c r="J37">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>11316600</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>140067751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2883,31 +2883,31 @@
         <v>187</v>
       </c>
       <c r="D38">
-        <v>12.33</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>12.77</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>11.93</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2.664446294754374</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>224</v>
       </c>
       <c r="J38">
-        <v>9325</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>3718300</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>46099160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2921,31 +2921,31 @@
         <v>187</v>
       </c>
       <c r="D39">
-        <v>29.42</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>29.73</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>29.98</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>29.42</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-1.308285810130819</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>225</v>
       </c>
       <c r="J39">
-        <v>5454</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1134400</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>33713935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2959,31 +2959,31 @@
         <v>187</v>
       </c>
       <c r="D40">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1.662049861495846</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>226</v>
       </c>
       <c r="J40">
-        <v>38582</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>48332800</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>180607712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2997,31 +2997,31 @@
         <v>187</v>
       </c>
       <c r="D41">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>13.72</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>13.98</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>13.38</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>-2.318840579710147</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>227</v>
       </c>
       <c r="J41">
-        <v>21319</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>11451800</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>156449296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3035,31 +3035,31 @@
         <v>187</v>
       </c>
       <c r="D42">
-        <v>25.08</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>24.62</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>24.37</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2.158859470468422</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>228</v>
       </c>
       <c r="J42">
-        <v>7338</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1600800</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>40034970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3073,31 +3073,31 @@
         <v>187</v>
       </c>
       <c r="D43">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>-1.814058956916101</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>229</v>
       </c>
       <c r="J43">
-        <v>24261</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>38408400</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>169319722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3111,31 +3111,31 @@
         <v>187</v>
       </c>
       <c r="D44">
-        <v>30.37</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>30.46</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>30.88</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>30.22</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-0.3608923884514417</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>230</v>
       </c>
       <c r="J44">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1519600</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>46343136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3149,31 +3149,31 @@
         <v>187</v>
       </c>
       <c r="D45">
-        <v>63.66</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>66.11</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>63.66</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-2.526412494258162</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>231</v>
       </c>
       <c r="J45">
-        <v>5741</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1013000</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>65522054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3187,31 +3187,31 @@
         <v>187</v>
       </c>
       <c r="D46">
-        <v>75.75</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>76.95</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>77.53</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>75.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-1.623376623376623</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>232</v>
       </c>
       <c r="J46">
-        <v>13173</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>2680400</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>204428003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3225,31 +3225,31 @@
         <v>187</v>
       </c>
       <c r="D47">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>15.43</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>15.58</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>-1.291989664082694</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>233</v>
       </c>
       <c r="J47">
-        <v>5947</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1546300</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>23725617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3263,31 +3263,31 @@
         <v>187</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>33.83</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>34.86</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>32.73</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>-2.884049440847548</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>234</v>
       </c>
       <c r="J48">
-        <v>25103</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>10446900</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>351942918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3301,31 +3301,31 @@
         <v>187</v>
       </c>
       <c r="D49">
-        <v>11.05</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>10.78</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.09057971014494171</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>235</v>
       </c>
       <c r="J49">
-        <v>1869</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>472500</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>5202091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3339,31 +3339,31 @@
         <v>187</v>
       </c>
       <c r="D50">
-        <v>17.44</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>18.46</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>17.32</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-4.699453551912565</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>236</v>
       </c>
       <c r="J50">
-        <v>18141</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>7069300</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>126612908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3377,31 +3377,31 @@
         <v>187</v>
       </c>
       <c r="D51">
-        <v>25.54</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>26.62</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>25.45</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>-1.769230769230772</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>237</v>
       </c>
       <c r="J51">
-        <v>18823</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>5629700</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>146388016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3415,31 +3415,31 @@
         <v>187</v>
       </c>
       <c r="D52">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>12.21</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>-0.08539709649873239</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>238</v>
       </c>
       <c r="J52">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>105300</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1251924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3453,31 +3453,31 @@
         <v>187</v>
       </c>
       <c r="D53">
-        <v>19.85</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>19.46</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>19.94</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2.266872746007219</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>239</v>
       </c>
       <c r="J53">
-        <v>11089</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>2535700</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>49900507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3491,31 +3491,31 @@
         <v>187</v>
       </c>
       <c r="D54">
-        <v>12.16</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>12.67</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>12.11</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>-2.87539936102236</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>240</v>
       </c>
       <c r="J54">
-        <v>9720</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>2772500</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>34261301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3529,31 +3529,31 @@
         <v>187</v>
       </c>
       <c r="D55">
-        <v>42.73</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>43.26</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>43.67</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>-1.384721901684748</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>241</v>
       </c>
       <c r="J55">
-        <v>7350</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1303200</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>56083116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3567,31 +3567,31 @@
         <v>187</v>
       </c>
       <c r="D56">
-        <v>27.31</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>27.35</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>28.36</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>26.52</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>-9.689153439153438</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>242</v>
       </c>
       <c r="J56">
-        <v>140540</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>47532200</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1310362508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3605,31 +3605,31 @@
         <v>187</v>
       </c>
       <c r="D57">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>8.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>-0.1154734411085426</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>243</v>
       </c>
       <c r="J57">
-        <v>19791</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>12184600</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>106772656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3643,31 +3643,31 @@
         <v>187</v>
       </c>
       <c r="D58">
-        <v>11.59</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>11.67</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>-0.685518423307627</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>244</v>
       </c>
       <c r="J58">
-        <v>4952</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1413700</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>16587351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3681,31 +3681,31 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>19.19</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>19.39</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>19.61</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>19.08</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>-1.387461459403903</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>245</v>
       </c>
       <c r="J59">
-        <v>16361</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>3442800</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>66736875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3719,31 +3719,31 @@
         <v>187</v>
       </c>
       <c r="D60">
-        <v>63.9</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>64.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>65.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>63.68</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>-0.3586464992982955</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>246</v>
       </c>
       <c r="J60">
-        <v>7984</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1218700</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>78835496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3757,31 +3757,31 @@
         <v>187</v>
       </c>
       <c r="D61">
-        <v>47.67</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>47.64</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>49.49</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>47.38</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.02098195551826504</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
         <v>247</v>
       </c>
       <c r="J61">
-        <v>8004</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1788200</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>86683876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3795,31 +3795,31 @@
         <v>187</v>
       </c>
       <c r="D62">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>15.67</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>-0.1245330012453274</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
         <v>248</v>
       </c>
       <c r="J62">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1115800</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>17879039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3833,31 +3833,31 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>21.87</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>21.97</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>21.65</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>-0.5909090909090864</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>249</v>
       </c>
       <c r="J63">
-        <v>16570</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>5744300</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>125798230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3871,31 +3871,31 @@
         <v>187</v>
       </c>
       <c r="D64">
-        <v>13.52</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>13.91</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>13.32</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>-2.873563218390807</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>250</v>
       </c>
       <c r="J64">
-        <v>7860</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>4871600</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>69110524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3909,31 +3909,31 @@
         <v>187</v>
       </c>
       <c r="D65">
-        <v>11.01</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>10.87</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>10.78</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1.287948482060723</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>251</v>
       </c>
       <c r="J65">
-        <v>5527</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1329700</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>14721087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3947,31 +3947,31 @@
         <v>187</v>
       </c>
       <c r="D66">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>37.15</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>35.32</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>-2.047592695074715</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>252</v>
       </c>
       <c r="J66">
-        <v>11837</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>3230000</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>116966511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3985,31 +3985,31 @@
         <v>187</v>
       </c>
       <c r="D67">
-        <v>22.34</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>23.74</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>22.17</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>-4.489097905087648</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
         <v>253</v>
       </c>
       <c r="J67">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>214500</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>4881720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4023,31 +4023,31 @@
         <v>187</v>
       </c>
       <c r="D68">
-        <v>26.72</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>27.22</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>26.52</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0.1874765654293107</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
         <v>254</v>
       </c>
       <c r="J68">
-        <v>11032</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1943000</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>52316724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4061,31 +4061,31 @@
         <v>187</v>
       </c>
       <c r="D69">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>-0.2298850574712595</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>11125</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>19946300</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>89836264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4099,31 +4099,31 @@
         <v>187</v>
       </c>
       <c r="D70">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>25.42</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>24.01</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>-5.165615141955831</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>256</v>
       </c>
       <c r="J70">
-        <v>30829</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>13370800</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>327952605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4137,31 +4137,31 @@
         <v>187</v>
       </c>
       <c r="D71">
-        <v>8.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0.9009009009009016</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>257</v>
       </c>
       <c r="J71">
-        <v>7089</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>2560200</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>22783536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4175,31 +4175,31 @@
         <v>187</v>
       </c>
       <c r="D72">
-        <v>98.56</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>99.2</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>100.96</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>97.09</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1.045724830838626</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
         <v>258</v>
       </c>
       <c r="J72">
-        <v>17990</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>3495900</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>346627879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4213,31 +4213,31 @@
         <v>187</v>
       </c>
       <c r="D73">
-        <v>10.92</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>11.54</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>11.73</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>10.84</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>-5.780845556514236</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
         <v>259</v>
       </c>
       <c r="J73">
-        <v>27525</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>20577900</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>229381022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4251,31 +4251,31 @@
         <v>187</v>
       </c>
       <c r="D74">
-        <v>22.21</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>22.82</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>23.04</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>22.06</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>-3.224400871459688</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>260</v>
       </c>
       <c r="J74">
-        <v>14695</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>6414700</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>144757924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4289,31 +4289,31 @@
         <v>187</v>
       </c>
       <c r="D75">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>7.93</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>-0.1288659793814406</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>261</v>
       </c>
       <c r="J75">
-        <v>5524</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>1315100</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>10245203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4327,31 +4327,31 @@
         <v>187</v>
       </c>
       <c r="D76">
-        <v>14.32</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>14.11</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>13.96</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1.921708185053378</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>262</v>
       </c>
       <c r="J76">
-        <v>4162</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>825900</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>11885928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4365,31 +4365,31 @@
         <v>187</v>
       </c>
       <c r="D77">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>17.61</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>18.46</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>17.48</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>2.991944764096661</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>263</v>
       </c>
       <c r="J77">
-        <v>38139</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>13272800</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>240271695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4403,31 +4403,31 @@
         <v>187</v>
       </c>
       <c r="D78">
-        <v>9.49</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>9.960000000000001</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>-2.366255144032926</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>264</v>
       </c>
       <c r="J78">
-        <v>8924</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2923500</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>28284992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4441,31 +4441,31 @@
         <v>187</v>
       </c>
       <c r="D79">
-        <v>6.96</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>-4.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>265</v>
       </c>
       <c r="J79">
-        <v>7532</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>3833200</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>26881489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4479,31 +4479,31 @@
         <v>187</v>
       </c>
       <c r="D80">
-        <v>16.69</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>16.76</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>17.33</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>-0.5955926146515657</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>266</v>
       </c>
       <c r="J80">
-        <v>8795</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>2855300</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>48432760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4517,31 +4517,31 @@
         <v>187</v>
       </c>
       <c r="D81">
-        <v>34.24</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>34.87</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>-1.183261183261173</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
         <v>267</v>
       </c>
       <c r="J81">
-        <v>14634</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>2354100</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>80884550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4555,31 +4555,31 @@
         <v>187</v>
       </c>
       <c r="D82">
-        <v>116464.06</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>117380.89</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>119167.14</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>116109.1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>-0.7807345155911408</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>268</v>
       </c>
       <c r="J82">
-        <v>2340304</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>1068084900</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>26647194131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4593,31 +4593,31 @@
         <v>187</v>
       </c>
       <c r="D83">
-        <v>33.19</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>32.67</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>34.39</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>32.55</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1.653905053598772</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>269</v>
       </c>
       <c r="J83">
-        <v>17612</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>3102000</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>104548211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4631,31 +4631,31 @@
         <v>187</v>
       </c>
       <c r="D84">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>6.92</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>6.52</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>-5.635838150289013</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>270</v>
       </c>
       <c r="J84">
-        <v>32510</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>46334800</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>312176158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4669,31 +4669,31 @@
         <v>187</v>
       </c>
       <c r="D85">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>11.06</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>10.54</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>-2.230650967106416</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
         <v>271</v>
       </c>
       <c r="J85">
-        <v>39722</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>40748800</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>437458428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4707,31 +4707,31 @@
         <v>187</v>
       </c>
       <c r="D86">
-        <v>28.25</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>28.99</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>29.85</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>28.14</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>-3.344122296201507</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>272</v>
       </c>
       <c r="J86">
-        <v>82772</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>50992800</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1466091343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4745,31 +4745,31 @@
         <v>187</v>
       </c>
       <c r="D87">
-        <v>24.14</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>24.51</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>24.91</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>23.83</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>-1.509587923296618</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>273</v>
       </c>
       <c r="J87">
-        <v>30407</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>20716200</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>500365643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4783,31 +4783,31 @@
         <v>187</v>
       </c>
       <c r="D88">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>7.09</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>-0.2832861189801639</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
         <v>274</v>
       </c>
       <c r="J88">
-        <v>13451</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>12130400</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>87991613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4821,31 +4821,31 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>23.02</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1.819757365684583</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>275</v>
       </c>
       <c r="J89">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>184000</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>4348847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4859,31 +4859,31 @@
         <v>187</v>
       </c>
       <c r="D90">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>29.58</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>28.58</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1.983988861816917</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
         <v>276</v>
       </c>
       <c r="J90">
-        <v>23625</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>5239500</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>152653185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4897,31 +4897,31 @@
         <v>187</v>
       </c>
       <c r="D91">
-        <v>24.35</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>25.19</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>24.08</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>-1.695599515542988</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
         <v>277</v>
       </c>
       <c r="J91">
-        <v>20724</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>6982500</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>171462765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4935,31 +4935,31 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <v>8.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>8.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>8.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>8.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>-2.166064981949455</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
         <v>278</v>
       </c>
       <c r="J92">
-        <v>6143</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1523000</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>12443143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4973,31 +4973,31 @@
         <v>187</v>
       </c>
       <c r="D93">
-        <v>26.86</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>27.16</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>27.49</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>26.86</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>-0.812407680945343</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
         <v>279</v>
       </c>
       <c r="J93">
-        <v>12879</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>3827000</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>103495756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5011,16 +5011,16 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>18.97</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>18.97</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>19.35</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5029,13 +5029,13 @@
         <v>280</v>
       </c>
       <c r="J94">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>239800</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>4574401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5049,31 +5049,31 @@
         <v>187</v>
       </c>
       <c r="D95">
-        <v>20.04</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>19.74</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0.9571788413098121</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
         <v>281</v>
       </c>
       <c r="J95">
-        <v>25395</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>11084900</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>223212402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5087,31 +5087,31 @@
         <v>187</v>
       </c>
       <c r="D96">
-        <v>37.69</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>38.14</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>38.14</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>36.96</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>-1.205766710353869</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
         <v>282</v>
       </c>
       <c r="J96">
-        <v>9164</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>2770500</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>104596032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5125,31 +5125,31 @@
         <v>187</v>
       </c>
       <c r="D97">
-        <v>17.29</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>16.31</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>17.38</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>16.31</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>6.07361963190183</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
         <v>283</v>
       </c>
       <c r="J97">
-        <v>9107</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>3604800</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>61219193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5163,31 +5163,31 @@
         <v>187</v>
       </c>
       <c r="D98">
-        <v>33.55</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>33.48</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>34.12</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0.2090800477897261</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>284</v>
       </c>
       <c r="J98">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>7394771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5201,31 +5201,31 @@
         <v>187</v>
       </c>
       <c r="D99">
-        <v>14.73</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>14.65</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>-2.126245847176082</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>285</v>
       </c>
       <c r="J99">
-        <v>3305</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>782400</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>11622413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5239,31 +5239,31 @@
         <v>187</v>
       </c>
       <c r="D100">
-        <v>41.42</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>41.04</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>42.79</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>40.62</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0.9751340809361252</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>286</v>
       </c>
       <c r="J100">
-        <v>25069</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>7946600</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>331348094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5277,31 +5277,31 @@
         <v>187</v>
       </c>
       <c r="D101">
-        <v>111.13</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>115.63</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>120.18</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>111.13</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>-2.73936635743043</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
         <v>287</v>
       </c>
       <c r="J101">
-        <v>11937</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>2321100</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>267714086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5315,31 +5315,31 @@
         <v>187</v>
       </c>
       <c r="D102">
-        <v>30.85</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>30.25</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>30.11</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2.389644872220386</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>288</v>
       </c>
       <c r="J102">
-        <v>9318</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>1733800</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>53264613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5353,31 +5353,31 @@
         <v>187</v>
       </c>
       <c r="D103">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>10.12</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>9.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>-2.12121212121213</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>289</v>
       </c>
       <c r="J103">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>187200</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>1851650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5391,31 +5391,31 @@
         <v>187</v>
       </c>
       <c r="D104">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1.806239737274225</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>290</v>
       </c>
       <c r="J104">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>259800</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>1591433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5429,31 +5429,31 @@
         <v>187</v>
       </c>
       <c r="D105">
-        <v>25.75</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>27.07</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>25.67</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>-0.923432089265096</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
         <v>291</v>
       </c>
       <c r="J105">
-        <v>86774</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>44474300</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>1173889106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5467,31 +5467,31 @@
         <v>187</v>
       </c>
       <c r="D106">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>6.14</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>-1.677852348993283</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>292</v>
       </c>
       <c r="J106">
-        <v>2951</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>827300</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>4953584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5505,31 +5505,31 @@
         <v>187</v>
       </c>
       <c r="D107">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>19.72</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>20.03</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>18.77</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>-4.228222109016802</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
         <v>293</v>
       </c>
       <c r="J107">
-        <v>12193</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>3857300</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>74316491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5543,31 +5543,31 @@
         <v>187</v>
       </c>
       <c r="D108">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>13.15</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>13.28</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>12.38</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>-2.956785443517807</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>294</v>
       </c>
       <c r="J108">
-        <v>30750</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>18583200</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>238513694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5581,31 +5581,31 @@
         <v>187</v>
       </c>
       <c r="D109">
-        <v>18.67</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>19.12</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>19.44</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>18.58</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>-1.891749868628478</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>295</v>
       </c>
       <c r="J109">
-        <v>11930</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>2343100</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>44490734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5619,31 +5619,31 @@
         <v>187</v>
       </c>
       <c r="D110">
-        <v>15.93</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>16.19</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>-1.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>296</v>
       </c>
       <c r="J110">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>252600</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>4072606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5657,31 +5657,31 @@
         <v>187</v>
       </c>
       <c r="D111">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>20.41</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>21.19</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>20.26</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0.6378802747792078</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>297</v>
       </c>
       <c r="J111">
-        <v>30507</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>8021700</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>166531046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5695,31 +5695,31 @@
         <v>187</v>
       </c>
       <c r="D112">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>14.09</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>14.57</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0.6382978723404246</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
         <v>298</v>
       </c>
       <c r="J112">
-        <v>8105</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>1638600</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>23552467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5733,31 +5733,31 @@
         <v>187</v>
       </c>
       <c r="D113">
-        <v>17.35</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>-1.532349602724175</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>299</v>
       </c>
       <c r="J113">
-        <v>6199</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>1760400</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>30972894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5771,31 +5771,31 @@
         <v>187</v>
       </c>
       <c r="D114">
-        <v>9.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>12.01</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>9.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>-14.66781708369283</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>300</v>
       </c>
       <c r="J114">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>18313600</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>201520459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5809,31 +5809,31 @@
         <v>187</v>
       </c>
       <c r="D115">
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>49.04</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>50.76</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>49.04</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1.560916278126907</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>301</v>
       </c>
       <c r="J115">
-        <v>33704</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>7337100</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>367307115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5847,31 +5847,31 @@
         <v>187</v>
       </c>
       <c r="D116">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>14.56</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2.353780313837376</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>302</v>
       </c>
       <c r="J116">
-        <v>4042</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>748800</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>10754674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5885,31 +5885,31 @@
         <v>187</v>
       </c>
       <c r="D117">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>-7.727272727272744</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>303</v>
       </c>
       <c r="J117">
-        <v>69073</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>299626000</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>634005916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5923,31 +5923,31 @@
         <v>187</v>
       </c>
       <c r="D118">
-        <v>39.86</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>41.75</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>39.65</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>-4.526946107784433</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>304</v>
       </c>
       <c r="J118">
-        <v>4315</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>1620700</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>65117569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5961,31 +5961,31 @@
         <v>187</v>
       </c>
       <c r="D119">
-        <v>21.54</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>21.58</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>21.43</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>-0.185356811862832</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>305</v>
       </c>
       <c r="J119">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>230200</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>5011112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5999,31 +5999,31 @@
         <v>187</v>
       </c>
       <c r="D120">
-        <v>75.36</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>75.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>76.62</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>74.77</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>-0.06630420368650997</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
         <v>306</v>
       </c>
       <c r="J120">
-        <v>4971</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>709100</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>53620487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6037,31 +6037,31 @@
         <v>187</v>
       </c>
       <c r="D121">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>27.97</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>26.82</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>-0.3322259136212619</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
         <v>307</v>
       </c>
       <c r="J121">
-        <v>95122</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>64514600</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>1765519784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6075,31 +6075,31 @@
         <v>187</v>
       </c>
       <c r="D122">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>22.02</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>23.05</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>21.86</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>2.587380844303224</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
         <v>308</v>
       </c>
       <c r="J122">
-        <v>11197</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>5168500</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>116190294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6113,31 +6113,31 @@
         <v>187</v>
       </c>
       <c r="D123">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>6.41</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>-4.113924050632922</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
         <v>309</v>
       </c>
       <c r="J123">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>500800</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>3119176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6151,31 +6151,31 @@
         <v>187</v>
       </c>
       <c r="D124">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>10.51</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>3.10679611650484</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
         <v>310</v>
       </c>
       <c r="J124">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>647000</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>6876482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6189,31 +6189,31 @@
         <v>187</v>
       </c>
       <c r="D125">
-        <v>6.74</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>0.7473841554559016</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>311</v>
       </c>
       <c r="J125">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>337100</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>2276301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6227,31 +6227,31 @@
         <v>187</v>
       </c>
       <c r="D126">
-        <v>21.95</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>21.57</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>22.17</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>21.45</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>1.47942672214517</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>312</v>
       </c>
       <c r="J126">
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>646900</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>14144603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6265,31 +6265,31 @@
         <v>187</v>
       </c>
       <c r="D127">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>-0.6968641114982584</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>313</v>
       </c>
       <c r="J127">
-        <v>7528</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>8148800</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>23382868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6303,31 +6303,31 @@
         <v>187</v>
       </c>
       <c r="D128">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>-5.168539325842706</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
         <v>314</v>
       </c>
       <c r="J128">
-        <v>2337</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>1256300</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>5512829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6341,31 +6341,31 @@
         <v>187</v>
       </c>
       <c r="D129">
-        <v>70.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>72.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>73.8</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>69.78</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>-1.944444444444452</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>315</v>
       </c>
       <c r="J129">
-        <v>17623</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>3838800</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>276588708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6379,31 +6379,31 @@
         <v>187</v>
       </c>
       <c r="D130">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>-1.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
         <v>316</v>
       </c>
       <c r="J130">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>1201400</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>10203641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6417,31 +6417,31 @@
         <v>187</v>
       </c>
       <c r="D131">
-        <v>48.76</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>49.34</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>49.45</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>48.36</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>-1.23556815880089</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
         <v>317</v>
       </c>
       <c r="J131">
-        <v>7938</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>1245400</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>61062732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6455,31 +6455,31 @@
         <v>187</v>
       </c>
       <c r="D132">
-        <v>7.62</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>7.42</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>7.42</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>1.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
         <v>318</v>
       </c>
       <c r="J132">
-        <v>8276</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>4516000</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>34808366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6493,31 +6493,31 @@
         <v>187</v>
       </c>
       <c r="D133">
-        <v>31.79</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>32.18</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>32.93</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>31.67</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>-1.517967781908308</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
         <v>319</v>
       </c>
       <c r="J133">
-        <v>13473</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>11407700</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>364233643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6531,31 +6531,31 @@
         <v>187</v>
       </c>
       <c r="D134">
-        <v>25.87</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>25.13</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>3.314696485623011</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>320</v>
       </c>
       <c r="J134">
-        <v>21819</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>6119000</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>158467142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6569,31 +6569,31 @@
         <v>187</v>
       </c>
       <c r="D135">
-        <v>20.67</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>20.62</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>21.17</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>-0.8633093525179842</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
         <v>321</v>
       </c>
       <c r="J135">
-        <v>34493</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>9335100</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>194460898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6607,31 +6607,31 @@
         <v>187</v>
       </c>
       <c r="D136">
-        <v>13.93</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>14.47</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>14.54</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>13.85</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>-3.665283540802221</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>322</v>
       </c>
       <c r="J136">
-        <v>8210</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>2153400</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>30506830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6645,31 +6645,31 @@
         <v>187</v>
       </c>
       <c r="D137">
-        <v>66.39</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>67.3</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>67.97</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>65.52</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>-1.352154531946503</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>323</v>
       </c>
       <c r="J137">
-        <v>6621</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>1400300</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>93839480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6683,31 +6683,31 @@
         <v>187</v>
       </c>
       <c r="D138">
-        <v>65.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>67.78</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>68.47</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>65.25</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>-2.295956154643773</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>324</v>
       </c>
       <c r="J138">
-        <v>20518</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>6573200</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>438825305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6721,31 +6721,31 @@
         <v>187</v>
       </c>
       <c r="D139">
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>18.97</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>19.16</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>-2.059134107708556</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
         <v>325</v>
       </c>
       <c r="J139">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>482100</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>9062433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6759,31 +6759,31 @@
         <v>187</v>
       </c>
       <c r="D140">
-        <v>16.47</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>16.79</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>17.14</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>-1.905896366885052</v>
+        <v>0</v>
       </c>
       <c r="I140" t="s">
         <v>326</v>
       </c>
       <c r="J140">
-        <v>2933</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>846400</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>13987696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6797,31 +6797,31 @@
         <v>187</v>
       </c>
       <c r="D141">
-        <v>32.29</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>34.99</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>35.36</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>31.93</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>-5.805134189031511</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>327</v>
       </c>
       <c r="J141">
-        <v>2567</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>657900</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>22064276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6835,31 +6835,31 @@
         <v>187</v>
       </c>
       <c r="D142">
-        <v>39.29</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>38.91</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>-3.22660098522168</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>328</v>
       </c>
       <c r="J142">
-        <v>20354</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>4206200</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>167081703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6873,31 +6873,31 @@
         <v>187</v>
       </c>
       <c r="D143">
-        <v>21.48</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>22.31</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>-0.9225092250922476</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
         <v>329</v>
       </c>
       <c r="J143">
-        <v>11683</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>3668900</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>79998970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6911,31 +6911,31 @@
         <v>187</v>
       </c>
       <c r="D144">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>40.96</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>41.51</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>40.31</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>-0.9272816007808576</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
         <v>330</v>
       </c>
       <c r="J144">
-        <v>19075</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>3689300</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>150772818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6949,31 +6949,31 @@
         <v>187</v>
       </c>
       <c r="D145">
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>15.42</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>14.84</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>-0.7999999999999948</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>331</v>
       </c>
       <c r="J145">
-        <v>2568</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>437600</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>6616076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6987,31 +6987,31 @@
         <v>187</v>
       </c>
       <c r="D146">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>28.69</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>30.87</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>28.42</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>2.836879432624116</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>332</v>
       </c>
       <c r="J146">
-        <v>9090</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>2535200</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>74524542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7025,31 +7025,31 @@
         <v>187</v>
       </c>
       <c r="D147">
-        <v>32.99</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>34.59</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>34.91</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>32.91</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>-4.735778226970836</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
         <v>333</v>
       </c>
       <c r="J147">
-        <v>3183</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>578000</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>19518852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7063,31 +7063,31 @@
         <v>187</v>
       </c>
       <c r="D148">
-        <v>34.64</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>34.35</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>34.28</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>0.7855688100087377</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
         <v>334</v>
       </c>
       <c r="J148">
-        <v>4467</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>842400</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>29382169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7101,31 +7101,31 @@
         <v>187</v>
       </c>
       <c r="D149">
-        <v>20.51</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>20.46</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>20.42</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>-2.333333333333326</v>
+        <v>0</v>
       </c>
       <c r="I149" t="s">
         <v>335</v>
       </c>
       <c r="J149">
-        <v>4678</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>872400</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>18105201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7139,31 +7139,31 @@
         <v>187</v>
       </c>
       <c r="D150">
-        <v>30.43</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>30.25</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>31.24</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>30.09</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.3959089409435863</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
         <v>336</v>
       </c>
       <c r="J150">
-        <v>8245</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>1414600</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>43573773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7177,31 +7177,31 @@
         <v>187</v>
       </c>
       <c r="D151">
-        <v>15.73</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>14.99</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>14.87</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>4.93662441627752</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>337</v>
       </c>
       <c r="J151">
-        <v>5960</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>1523000</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>23861702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7215,31 +7215,31 @@
         <v>187</v>
       </c>
       <c r="D152">
-        <v>21.61</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>21.87</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>22.32</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>21.34</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>-1.188843164151813</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>338</v>
       </c>
       <c r="J152">
-        <v>2802</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>599400</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>13062046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7253,31 +7253,31 @@
         <v>187</v>
       </c>
       <c r="D153">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>-3.278688524590152</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>339</v>
       </c>
       <c r="J153">
-        <v>9342</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>8698200</v>
+        <v>0</v>
       </c>
       <c r="L153">
-        <v>52363056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7291,31 +7291,31 @@
         <v>187</v>
       </c>
       <c r="D154">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>64.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>66.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>64.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>2.858918582970795</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>340</v>
       </c>
       <c r="J154">
-        <v>39083</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>9213700</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>606441145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7329,31 +7329,31 @@
         <v>187</v>
       </c>
       <c r="D155">
-        <v>32.15</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>32.47</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>32.7</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>32.04</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>-1.076923076923081</v>
+        <v>0</v>
       </c>
       <c r="I155" t="s">
         <v>341</v>
       </c>
       <c r="J155">
-        <v>12566</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>2443000</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>79018923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7367,31 +7367,31 @@
         <v>187</v>
       </c>
       <c r="D156">
-        <v>17.78</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>18.15</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>18.66</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>-2.092511013215854</v>
+        <v>0</v>
       </c>
       <c r="I156" t="s">
         <v>342</v>
       </c>
       <c r="J156">
-        <v>4531</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>2671200</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>48148877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7405,31 +7405,31 @@
         <v>187</v>
       </c>
       <c r="D157">
-        <v>28.82</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>28.31</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>28.06</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>1.909476661951906</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
         <v>343</v>
       </c>
       <c r="J157">
-        <v>4979</v>
+        <v>0</v>
       </c>
       <c r="K157">
-        <v>1567400</v>
+        <v>0</v>
       </c>
       <c r="L157">
-        <v>44988968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7443,31 +7443,31 @@
         <v>187</v>
       </c>
       <c r="D158">
-        <v>13.39</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>3.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I158" t="s">
         <v>344</v>
       </c>
       <c r="J158">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>616100</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>8082040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7481,31 +7481,31 @@
         <v>187</v>
       </c>
       <c r="D159">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>25.17</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>25.46</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>24.61</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>-1.509134233518662</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
         <v>345</v>
       </c>
       <c r="J159">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>410400</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>10295030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7519,31 +7519,31 @@
         <v>187</v>
       </c>
       <c r="D160">
-        <v>16.77</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>16.92</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>17.19</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>-1.003541912632832</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>346</v>
       </c>
       <c r="J160">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>898300</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>15181337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7557,31 +7557,31 @@
         <v>187</v>
       </c>
       <c r="D161">
-        <v>13.09</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>13.51</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>-1.058201058201062</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
         <v>347</v>
       </c>
       <c r="J161">
-        <v>10916</v>
+        <v>0</v>
       </c>
       <c r="K161">
-        <v>2999000</v>
+        <v>0</v>
       </c>
       <c r="L161">
-        <v>39653024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7595,31 +7595,31 @@
         <v>187</v>
       </c>
       <c r="D162">
-        <v>30.11</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>30.19</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>29.95</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0.1330229464582612</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
         <v>348</v>
       </c>
       <c r="J162">
-        <v>29511</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>5172000</v>
+        <v>0</v>
       </c>
       <c r="L162">
-        <v>157353424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7633,31 +7633,31 @@
         <v>187</v>
       </c>
       <c r="D163">
-        <v>10.49</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>10.42</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>10.76</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.7684918347742562</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
         <v>349</v>
       </c>
       <c r="J163">
-        <v>5592</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>1996600</v>
+        <v>0</v>
       </c>
       <c r="L163">
-        <v>21073627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7671,31 +7671,31 @@
         <v>187</v>
       </c>
       <c r="D164">
-        <v>26.92</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>27.02</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>27.34</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>-0.6642066420664196</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
         <v>350</v>
       </c>
       <c r="J164">
-        <v>5971</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>2143000</v>
+        <v>0</v>
       </c>
       <c r="L164">
-        <v>57924758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7709,31 +7709,31 @@
         <v>187</v>
       </c>
       <c r="D165">
-        <v>21.26</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>21.22</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>21.78</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>21.12</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0.1885014137606159</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>351</v>
       </c>
       <c r="J165">
-        <v>4481</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>981500</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>21095591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7747,31 +7747,31 @@
         <v>187</v>
       </c>
       <c r="D166">
-        <v>22.08</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>21.78</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>21.64</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0.7759014148790422</v>
+        <v>0</v>
       </c>
       <c r="I166" t="s">
         <v>352</v>
       </c>
       <c r="J166">
-        <v>20848</v>
+        <v>0</v>
       </c>
       <c r="K166">
-        <v>6493400</v>
+        <v>0</v>
       </c>
       <c r="L166">
-        <v>144402168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7785,31 +7785,31 @@
         <v>187</v>
       </c>
       <c r="D167">
-        <v>52.52</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>50.67</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>53.85</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>49.88</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>3.324808184143232</v>
+        <v>0</v>
       </c>
       <c r="I167" t="s">
         <v>353</v>
       </c>
       <c r="J167">
-        <v>3380</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>634000</v>
+        <v>0</v>
       </c>
       <c r="L167">
-        <v>33371012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7823,31 +7823,31 @@
         <v>187</v>
       </c>
       <c r="D168">
-        <v>13.52</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>14.16</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>13.43</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>-4.519774011299439</v>
+        <v>0</v>
       </c>
       <c r="I168" t="s">
         <v>354</v>
       </c>
       <c r="J168">
-        <v>27517</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>14917000</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>206460259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7861,31 +7861,31 @@
         <v>187</v>
       </c>
       <c r="D169">
-        <v>91.75</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>92.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>94.16</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>91.36</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>-1.524095738971774</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
         <v>355</v>
       </c>
       <c r="J169">
-        <v>61818</v>
+        <v>0</v>
       </c>
       <c r="K169">
-        <v>24921600</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>2307371901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7899,31 +7899,31 @@
         <v>187</v>
       </c>
       <c r="D170">
-        <v>25.42</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>25.92</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>26.05</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>25.18</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>-1.966833783262623</v>
+        <v>0</v>
       </c>
       <c r="I170" t="s">
         <v>356</v>
       </c>
       <c r="J170">
-        <v>2305</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>474300</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>12139931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7937,31 +7937,31 @@
         <v>187</v>
       </c>
       <c r="D171">
-        <v>44.83</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>44.05</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>45.53</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>44.05</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>1.563207974626184</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>357</v>
       </c>
       <c r="J171">
-        <v>16665</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>3409900</v>
+        <v>0</v>
       </c>
       <c r="L171">
-        <v>153684200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7975,31 +7975,31 @@
         <v>187</v>
       </c>
       <c r="D172">
-        <v>8.31</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>8.630000000000001</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>8.77</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>8.31</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>-4.701834862385322</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>358</v>
       </c>
       <c r="J172">
-        <v>3124</v>
+        <v>0</v>
       </c>
       <c r="K172">
-        <v>989700</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>8384058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8013,31 +8013,31 @@
         <v>187</v>
       </c>
       <c r="D173">
-        <v>8.31</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>8.44</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>3.101736972704714</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>359</v>
       </c>
       <c r="J173">
-        <v>4218</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>1326300</v>
+        <v>0</v>
       </c>
       <c r="L173">
-        <v>10996549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8051,31 +8051,31 @@
         <v>187</v>
       </c>
       <c r="D174">
-        <v>14.52</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>14.89</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>2.325581395348838</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>360</v>
       </c>
       <c r="J174">
-        <v>56663</v>
+        <v>0</v>
       </c>
       <c r="K174">
-        <v>49850500</v>
+        <v>0</v>
       </c>
       <c r="L174">
-        <v>729921914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8089,31 +8089,31 @@
         <v>187</v>
       </c>
       <c r="D175">
-        <v>88.95</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>88.98</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>88.45</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>-0.02247948746768126</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>361</v>
       </c>
       <c r="J175">
-        <v>27550</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>5164300</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>463755410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8127,31 +8127,31 @@
         <v>187</v>
       </c>
       <c r="D176">
-        <v>7.78</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>7.74</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>8.02</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>7.72</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0.5167958656330753</v>
+        <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>362</v>
       </c>
       <c r="J176">
-        <v>3929</v>
+        <v>0</v>
       </c>
       <c r="K176">
-        <v>1487100</v>
+        <v>0</v>
       </c>
       <c r="L176">
-        <v>11726614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8165,31 +8165,31 @@
         <v>187</v>
       </c>
       <c r="D177">
-        <v>33.44</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>33.98</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>33.98</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>33.13</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>0.2999400119975834</v>
+        <v>0</v>
       </c>
       <c r="I177" t="s">
         <v>363</v>
       </c>
       <c r="J177">
-        <v>16247</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>3143400</v>
+        <v>0</v>
       </c>
       <c r="L177">
-        <v>105183054</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas_diarias/2021-01-26.xlsx
+++ b/planilhas_diarias/2021-01-26.xlsx
@@ -577,7 +577,7 @@
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>30/12/1899</t>
+    <t>26/01/2021</t>
   </si>
   <si>
     <t>Alliar ON NM</t>
@@ -1515,31 +1515,31 @@
         <v>187</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-1.960784313725498</v>
       </c>
       <c r="I2" t="s">
         <v>188</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>204100</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2193833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1553,31 +1553,31 @@
         <v>187</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>15.29</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>15.16</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1.227390180878561</v>
       </c>
       <c r="I3" t="s">
         <v>189</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>570200</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8811083</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1591,31 +1591,31 @@
         <v>187</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.69</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>15.19</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.65016501650165</v>
       </c>
       <c r="I4" t="s">
         <v>190</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>50639</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28714100</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>444137473</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1629,31 +1629,31 @@
         <v>187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.65</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1.132686084142385</v>
       </c>
       <c r="I5" t="s">
         <v>191</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>22063</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9108200</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>112516212</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1667,31 +1667,31 @@
         <v>187</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>25.99</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>26.82</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.99</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7957559681697645</v>
       </c>
       <c r="I6" t="s">
         <v>192</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>245700</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6510622</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1705,31 +1705,31 @@
         <v>187</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>40.83</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>40.43</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>41.45</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>40.32</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9144834404349912</v>
       </c>
       <c r="I7" t="s">
         <v>193</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6222</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1471600</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>60232087</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1743,31 +1743,31 @@
         <v>187</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>26.07</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>26.17</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>27.24</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.4201680672268886</v>
       </c>
       <c r="I8" t="s">
         <v>194</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6410</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1229800</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>32698079</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1781,31 +1781,31 @@
         <v>187</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8250825082508368</v>
       </c>
       <c r="I9" t="s">
         <v>195</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5127</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3758700</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>23168513</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1819,31 +1819,31 @@
         <v>187</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>26.27</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0.9541984732824428</v>
       </c>
       <c r="I10" t="s">
         <v>196</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>177900</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4615123</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1857,31 +1857,31 @@
         <v>187</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>34.03</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>34.79</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>35.35</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>33.81</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-2.071942446043162</v>
       </c>
       <c r="I11" t="s">
         <v>197</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2692</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>478800</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16513134</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1895,31 +1895,31 @@
         <v>187</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>69.45</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>70.53</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-0.6764536557282654</v>
       </c>
       <c r="I12" t="s">
         <v>198</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>293200</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>20470942</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1933,31 +1933,31 @@
         <v>187</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>37.87</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>39.58</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>37.55</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-2.672834746851707</v>
       </c>
       <c r="I13" t="s">
         <v>199</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>29112</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9169900</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>355106531</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1971,31 +1971,31 @@
         <v>187</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>59.3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>58.36</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>59.6</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.280956447480786</v>
       </c>
       <c r="I14" t="s">
         <v>200</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>36361</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12843700</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>758579910</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2009,31 +2009,31 @@
         <v>187</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>32.79</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>33.96</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>34.24</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>32.61</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-2.671415850400708</v>
       </c>
       <c r="I15" t="s">
         <v>201</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>93658</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26922300</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>894812865</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2047,31 +2047,31 @@
         <v>187</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>24.41</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>24.97</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>25.63</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>24.29</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-2.399040383846467</v>
       </c>
       <c r="I16" t="s">
         <v>202</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>96185</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>58129800</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1443973479</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2085,31 +2085,31 @@
         <v>187</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-3.211009174311939</v>
       </c>
       <c r="I17" t="s">
         <v>203</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>350400</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>746170</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2123,31 +2123,31 @@
         <v>187</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>28.45</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>28.42</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>28.28</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.105559465165368</v>
       </c>
       <c r="I18" t="s">
         <v>204</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>27019</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6083100</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>174113554</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2161,31 +2161,31 @@
         <v>187</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-1.307189542483652</v>
       </c>
       <c r="I19" t="s">
         <v>205</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12470</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7024200</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>64093201</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2199,31 +2199,31 @@
         <v>187</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>140.59</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>134.44</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>140.59</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>133.02</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.002071312324306</v>
       </c>
       <c r="I20" t="s">
         <v>206</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5945</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>958600</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>133170299</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2237,31 +2237,31 @@
         <v>187</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10.06</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-0.1011122345803821</v>
       </c>
       <c r="I21" t="s">
         <v>207</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7882</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2227100</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>22046491</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2275,31 +2275,31 @@
         <v>187</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5.33</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5.48</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-2.380952380952379</v>
       </c>
       <c r="I22" t="s">
         <v>208</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1890800</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10296440</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2313,31 +2313,31 @@
         <v>187</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>10.46</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-5.798394290811778</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4107</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3710400</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>39562944</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2351,31 +2351,31 @@
         <v>187</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>112.08</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>112.91</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>114.69</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>111.7</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-0.9719031631030293</v>
       </c>
       <c r="I24" t="s">
         <v>210</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>187076</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8011802</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>904521695.89</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2389,31 +2389,31 @@
         <v>187</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>9.18</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1.92307692307692</v>
       </c>
       <c r="I25" t="s">
         <v>211</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5172</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20776200</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>197907498</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2427,31 +2427,31 @@
         <v>187</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>70.17</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>70.7</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>72.16</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>69.84</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-0.9877240016932451</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>8749</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1397900</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>99325082</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2465,31 +2465,31 @@
         <v>187</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>24.33</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9.569377990430622</v>
       </c>
       <c r="I27" t="s">
         <v>213</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>64362</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>32466000</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>761083020</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2503,31 +2503,31 @@
         <v>187</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>20.41</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>20.63</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>20.79</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>20.37</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1.353310778153703</v>
       </c>
       <c r="I28" t="s">
         <v>214</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>26828</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>9410100</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>193453441</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2541,31 +2541,31 @@
         <v>187</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>23.65</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>23.91</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>24.38</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>23.53</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1.499375260308217</v>
       </c>
       <c r="I29" t="s">
         <v>215</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>9233</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1962500</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>46740238</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2579,31 +2579,31 @@
         <v>187</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>9.34</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.853871319520174</v>
       </c>
       <c r="I30" t="s">
         <v>216</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>45877</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>19689000</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>186781477</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2617,31 +2617,31 @@
         <v>187</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9.32</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.815315315315315</v>
       </c>
       <c r="I31" t="s">
         <v>217</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>7079</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2079300</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>19056821</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2655,31 +2655,31 @@
         <v>187</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>13.33</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>13.87</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>13.19</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1.405325443786979</v>
       </c>
       <c r="I32" t="s">
         <v>218</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>6444</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2182300</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>29541104</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2693,31 +2693,31 @@
         <v>187</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>84.98</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-3.874146232224843</v>
       </c>
       <c r="I33" t="s">
         <v>219</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>16209</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4095400</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>361958890</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2731,31 +2731,31 @@
         <v>187</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-0.8434864104967185</v>
       </c>
       <c r="I34" t="s">
         <v>220</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5748</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1218300</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>12993367</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2769,31 +2769,31 @@
         <v>187</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>16.44</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-4.059040590405916</v>
       </c>
       <c r="I35" t="s">
         <v>221</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>204000</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3256854</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2807,31 +2807,31 @@
         <v>187</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-14.40568475452197</v>
       </c>
       <c r="I36" t="s">
         <v>222</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>23195</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>7109700</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>202084897</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2845,31 +2845,31 @@
         <v>187</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12.47</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12.66</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-2.877697841726614</v>
       </c>
       <c r="I37" t="s">
         <v>223</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>11316600</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>140067751</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2883,31 +2883,31 @@
         <v>187</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>12.33</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>12.77</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2.664446294754374</v>
       </c>
       <c r="I38" t="s">
         <v>224</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>9325</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>3718300</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>46099160</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2921,31 +2921,31 @@
         <v>187</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>29.42</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>29.73</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>29.98</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>29.42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1.308285810130819</v>
       </c>
       <c r="I39" t="s">
         <v>225</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>5454</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1134400</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>33713935</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2959,31 +2959,31 @@
         <v>187</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1.662049861495846</v>
       </c>
       <c r="I40" t="s">
         <v>226</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>38582</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>48332800</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>180607712</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2997,31 +2997,31 @@
         <v>187</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>13.72</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>13.98</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-2.318840579710147</v>
       </c>
       <c r="I41" t="s">
         <v>227</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>21319</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>11451800</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>156449296</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3035,31 +3035,31 @@
         <v>187</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>25.08</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>24.62</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>24.37</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2.158859470468422</v>
       </c>
       <c r="I42" t="s">
         <v>228</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>7338</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1600800</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>40034970</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3073,31 +3073,31 @@
         <v>187</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1.814058956916101</v>
       </c>
       <c r="I43" t="s">
         <v>229</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>24261</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>38408400</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>169319722</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3111,31 +3111,31 @@
         <v>187</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>30.37</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>30.46</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>30.88</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>30.22</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-0.3608923884514417</v>
       </c>
       <c r="I44" t="s">
         <v>230</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>7875</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1519600</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>46343136</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3149,31 +3149,31 @@
         <v>187</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>63.66</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>66.11</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>63.66</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-2.526412494258162</v>
       </c>
       <c r="I45" t="s">
         <v>231</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5741</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1013000</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>65522054</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3187,31 +3187,31 @@
         <v>187</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>75.75</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>76.95</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>77.53</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1.623376623376623</v>
       </c>
       <c r="I46" t="s">
         <v>232</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>13173</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2680400</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>204428003</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3225,31 +3225,31 @@
         <v>187</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>15.58</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1.291989664082694</v>
       </c>
       <c r="I47" t="s">
         <v>233</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>5947</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1546300</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>23725617</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3263,31 +3263,31 @@
         <v>187</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>33.83</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>34.86</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>32.73</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-2.884049440847548</v>
       </c>
       <c r="I48" t="s">
         <v>234</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>25103</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>10446900</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>351942918</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3301,31 +3301,31 @@
         <v>187</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>11.05</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.09057971014494171</v>
       </c>
       <c r="I49" t="s">
         <v>235</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1869</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>472500</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>5202091</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3339,31 +3339,31 @@
         <v>187</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>17.44</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>18.46</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>17.32</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-4.699453551912565</v>
       </c>
       <c r="I50" t="s">
         <v>236</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>18141</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>7069300</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>126612908</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3377,31 +3377,31 @@
         <v>187</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>25.54</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>26.01</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>26.62</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>25.45</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1.769230769230772</v>
       </c>
       <c r="I51" t="s">
         <v>237</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>18823</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>5629700</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>146388016</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3415,31 +3415,31 @@
         <v>187</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>12.21</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.08539709649873239</v>
       </c>
       <c r="I52" t="s">
         <v>238</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>105300</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1251924</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3453,31 +3453,31 @@
         <v>187</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>19.85</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>19.46</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>19.94</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.266872746007219</v>
       </c>
       <c r="I53" t="s">
         <v>239</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>11089</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2535700</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>49900507</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3491,31 +3491,31 @@
         <v>187</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>12.67</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>-2.87539936102236</v>
       </c>
       <c r="I54" t="s">
         <v>240</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>9720</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>2772500</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>34261301</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3529,31 +3529,31 @@
         <v>187</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>42.73</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>43.26</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>43.67</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1.384721901684748</v>
       </c>
       <c r="I55" t="s">
         <v>241</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1303200</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>56083116</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3567,31 +3567,31 @@
         <v>187</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>27.31</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>27.35</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>28.36</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>26.52</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>-9.689153439153438</v>
       </c>
       <c r="I56" t="s">
         <v>242</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>140540</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>47532200</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1310362508</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3605,31 +3605,31 @@
         <v>187</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-0.1154734411085426</v>
       </c>
       <c r="I57" t="s">
         <v>243</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>19791</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>12184600</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>106772656</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3643,31 +3643,31 @@
         <v>187</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>11.59</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>-0.685518423307627</v>
       </c>
       <c r="I58" t="s">
         <v>244</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>4952</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1413700</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>16587351</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3681,31 +3681,31 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>19.19</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>19.39</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>19.61</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>19.08</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>-1.387461459403903</v>
       </c>
       <c r="I59" t="s">
         <v>245</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>16361</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>3442800</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>66736875</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3719,31 +3719,31 @@
         <v>187</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>63.68</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>-0.3586464992982955</v>
       </c>
       <c r="I60" t="s">
         <v>246</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>7984</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1218700</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>78835496</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3757,31 +3757,31 @@
         <v>187</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>47.67</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>47.64</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>49.49</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>47.38</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.02098195551826504</v>
       </c>
       <c r="I61" t="s">
         <v>247</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>8004</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1788200</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>86683876</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3795,31 +3795,31 @@
         <v>187</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>15.67</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>-0.1245330012453274</v>
       </c>
       <c r="I62" t="s">
         <v>248</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>4365</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1115800</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>17879039</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3833,31 +3833,31 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>21.87</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>21.97</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>21.65</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-0.5909090909090864</v>
       </c>
       <c r="I63" t="s">
         <v>249</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>16570</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>5744300</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>125798230</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3871,31 +3871,31 @@
         <v>187</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>13.52</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>13.32</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-2.873563218390807</v>
       </c>
       <c r="I64" t="s">
         <v>250</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>7860</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>4871600</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>69110524</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3909,31 +3909,31 @@
         <v>187</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1.287948482060723</v>
       </c>
       <c r="I65" t="s">
         <v>251</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>5527</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1329700</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>14721087</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3947,31 +3947,31 @@
         <v>187</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>37.15</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>35.32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>-2.047592695074715</v>
       </c>
       <c r="I66" t="s">
         <v>252</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>11837</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>3230000</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>116966511</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3985,31 +3985,31 @@
         <v>187</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>22.34</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>23.65</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>23.74</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>22.17</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>-4.489097905087648</v>
       </c>
       <c r="I67" t="s">
         <v>253</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>214500</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>4881720</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4023,31 +4023,31 @@
         <v>187</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>27.22</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>26.52</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.1874765654293107</v>
       </c>
       <c r="I68" t="s">
         <v>254</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>11032</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1943000</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>52316724</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4061,31 +4061,31 @@
         <v>187</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-0.2298850574712595</v>
       </c>
       <c r="I69" t="s">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>11125</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>19946300</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>89836264</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4099,31 +4099,31 @@
         <v>187</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>25.42</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>24.01</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>-5.165615141955831</v>
       </c>
       <c r="I70" t="s">
         <v>256</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>30829</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>13370800</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>327952605</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4137,31 +4137,31 @@
         <v>187</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.9009009009009016</v>
       </c>
       <c r="I71" t="s">
         <v>257</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>7089</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2560200</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>22783536</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4175,31 +4175,31 @@
         <v>187</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>98.56</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>100.96</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>97.09</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1.045724830838626</v>
       </c>
       <c r="I72" t="s">
         <v>258</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>17990</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>3495900</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>346627879</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4213,31 +4213,31 @@
         <v>187</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>10.84</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>-5.780845556514236</v>
       </c>
       <c r="I73" t="s">
         <v>259</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>27525</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>20577900</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>229381022</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4251,31 +4251,31 @@
         <v>187</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>22.21</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>22.82</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>23.04</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>22.06</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>-3.224400871459688</v>
       </c>
       <c r="I74" t="s">
         <v>260</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>14695</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>6414700</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>144757924</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4289,31 +4289,31 @@
         <v>187</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>-0.1288659793814406</v>
       </c>
       <c r="I75" t="s">
         <v>261</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>5524</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1315100</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>10245203</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4327,31 +4327,31 @@
         <v>187</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>14.11</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>14.68</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>13.96</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1.921708185053378</v>
       </c>
       <c r="I76" t="s">
         <v>262</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>4162</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>825900</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>11885928</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4365,31 +4365,31 @@
         <v>187</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>17.61</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>18.46</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>17.48</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2.991944764096661</v>
       </c>
       <c r="I77" t="s">
         <v>263</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>38139</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>13272800</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>240271695</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4403,31 +4403,31 @@
         <v>187</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>9.43</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>-2.366255144032926</v>
       </c>
       <c r="I78" t="s">
         <v>264</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>8924</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2923500</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>28284992</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4441,31 +4441,31 @@
         <v>187</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>6.96</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>-4.000000000000001</v>
       </c>
       <c r="I79" t="s">
         <v>265</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>7532</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>3833200</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>26881489</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4479,31 +4479,31 @@
         <v>187</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>16.69</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>16.76</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>17.33</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>16.52</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>-0.5955926146515657</v>
       </c>
       <c r="I80" t="s">
         <v>266</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>8795</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>2855300</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>48432760</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4517,31 +4517,31 @@
         <v>187</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>34.24</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>34.87</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>-1.183261183261173</v>
       </c>
       <c r="I81" t="s">
         <v>267</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>14634</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2354100</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>80884550</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4555,31 +4555,31 @@
         <v>187</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>116464.06</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>117380.89</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>119167.14</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>116109.1</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>-0.7807345155911408</v>
       </c>
       <c r="I82" t="s">
         <v>268</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>2340304</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1068084900</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>26647194131</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4593,31 +4593,31 @@
         <v>187</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>32.67</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>34.39</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>32.55</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1.653905053598772</v>
       </c>
       <c r="I83" t="s">
         <v>269</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>17612</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>3102000</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>104548211</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4631,31 +4631,31 @@
         <v>187</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>6.92</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6.93</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>-5.635838150289013</v>
       </c>
       <c r="I84" t="s">
         <v>270</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>32510</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>46334800</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>312176158</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4669,31 +4669,31 @@
         <v>187</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>-2.230650967106416</v>
       </c>
       <c r="I85" t="s">
         <v>271</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>39722</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>40748800</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>437458428</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4707,31 +4707,31 @@
         <v>187</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>28.25</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>28.99</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>29.85</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>28.14</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>-3.344122296201507</v>
       </c>
       <c r="I86" t="s">
         <v>272</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>82772</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>50992800</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1466091343</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4745,31 +4745,31 @@
         <v>187</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>24.14</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>24.51</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>24.91</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>23.83</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>-1.509587923296618</v>
       </c>
       <c r="I87" t="s">
         <v>273</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>30407</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>20716200</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>500365643</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4783,31 +4783,31 @@
         <v>187</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>7.04</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>-0.2832861189801639</v>
       </c>
       <c r="I88" t="s">
         <v>274</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>13451</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>12130400</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>87991613</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4821,31 +4821,31 @@
         <v>187</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>23.33</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>23.02</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1.819757365684583</v>
       </c>
       <c r="I89" t="s">
         <v>275</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>184000</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4348847</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4859,31 +4859,31 @@
         <v>187</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>29.58</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>28.58</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1.983988861816917</v>
       </c>
       <c r="I90" t="s">
         <v>276</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>23625</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>5239500</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>152653185</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4897,31 +4897,31 @@
         <v>187</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>24.35</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>25.19</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>24.08</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>-1.695599515542988</v>
       </c>
       <c r="I91" t="s">
         <v>277</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>20724</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>6982500</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>171462765</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4935,31 +4935,31 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>-2.166064981949455</v>
       </c>
       <c r="I92" t="s">
         <v>278</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>6143</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1523000</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>12443143</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4973,31 +4973,31 @@
         <v>187</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>26.86</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>27.16</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>27.49</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>26.86</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>-0.812407680945343</v>
       </c>
       <c r="I93" t="s">
         <v>279</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>12879</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>3827000</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>103495756</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5011,16 +5011,16 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>19.35</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5029,13 +5029,13 @@
         <v>280</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1508</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>239800</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>4574401</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5049,31 +5049,31 @@
         <v>187</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>20.04</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.9571788413098121</v>
       </c>
       <c r="I95" t="s">
         <v>281</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>25395</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>11084900</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>223212402</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5087,31 +5087,31 @@
         <v>187</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>37.69</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>38.14</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>38.14</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>36.96</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>-1.205766710353869</v>
       </c>
       <c r="I96" t="s">
         <v>282</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>9164</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>2770500</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>104596032</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5125,31 +5125,31 @@
         <v>187</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>17.29</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>17.38</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>6.07361963190183</v>
       </c>
       <c r="I97" t="s">
         <v>283</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>9107</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>3604800</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>61219193</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5163,31 +5163,31 @@
         <v>187</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>33.55</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>33.48</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>34.12</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.2090800477897261</v>
       </c>
       <c r="I98" t="s">
         <v>284</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1366</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>7394771</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5201,31 +5201,31 @@
         <v>187</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>14.73</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>14.65</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>-2.126245847176082</v>
       </c>
       <c r="I99" t="s">
         <v>285</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>3305</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>782400</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>11622413</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5239,31 +5239,31 @@
         <v>187</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>41.42</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>41.04</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>42.79</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>40.62</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.9751340809361252</v>
       </c>
       <c r="I100" t="s">
         <v>286</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>25069</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>7946600</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>331348094</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5277,31 +5277,31 @@
         <v>187</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>111.13</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>115.63</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>120.18</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>111.13</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>-2.73936635743043</v>
       </c>
       <c r="I101" t="s">
         <v>287</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>11937</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>2321100</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>267714086</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5315,31 +5315,31 @@
         <v>187</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>30.85</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>30.11</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2.389644872220386</v>
       </c>
       <c r="I102" t="s">
         <v>288</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>9318</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1733800</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>53264613</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5353,31 +5353,31 @@
         <v>187</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>10.12</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>-2.12121212121213</v>
       </c>
       <c r="I103" t="s">
         <v>289</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>187200</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1851650</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5391,31 +5391,31 @@
         <v>187</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1.806239737274225</v>
       </c>
       <c r="I104" t="s">
         <v>290</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>259800</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>1591433</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5429,31 +5429,31 @@
         <v>187</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>25.75</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>27.07</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>25.67</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>-0.923432089265096</v>
       </c>
       <c r="I105" t="s">
         <v>291</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>86774</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>44474300</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1173889106</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5467,31 +5467,31 @@
         <v>187</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>5.96</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>-1.677852348993283</v>
       </c>
       <c r="I106" t="s">
         <v>292</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>2951</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>827300</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>4953584</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5505,31 +5505,31 @@
         <v>187</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>19.72</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>20.03</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>18.77</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>-4.228222109016802</v>
       </c>
       <c r="I107" t="s">
         <v>293</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>12193</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>3857300</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>74316491</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5543,31 +5543,31 @@
         <v>187</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>13.15</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>13.28</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>12.38</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>-2.956785443517807</v>
       </c>
       <c r="I108" t="s">
         <v>294</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>30750</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>18583200</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>238513694</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5581,31 +5581,31 @@
         <v>187</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>18.67</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>19.12</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>19.44</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>18.58</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>-1.891749868628478</v>
       </c>
       <c r="I109" t="s">
         <v>295</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>11930</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>2343100</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>44490734</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5619,31 +5619,31 @@
         <v>187</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>15.93</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>16.19</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>-1.666666666666664</v>
       </c>
       <c r="I110" t="s">
         <v>296</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>252600</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>4072606</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5657,31 +5657,31 @@
         <v>187</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>20.41</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>20.26</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.6378802747792078</v>
       </c>
       <c r="I111" t="s">
         <v>297</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>30507</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>8021700</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>166531046</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5695,31 +5695,31 @@
         <v>187</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>14.19</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>14.09</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>0.6382978723404246</v>
       </c>
       <c r="I112" t="s">
         <v>298</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>8105</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1638600</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>23552467</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5733,31 +5733,31 @@
         <v>187</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>17.35</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>17.84</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>-1.532349602724175</v>
       </c>
       <c r="I113" t="s">
         <v>299</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>6199</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1760400</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>30972894</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5771,31 +5771,31 @@
         <v>187</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>-14.66781708369283</v>
       </c>
       <c r="I114" t="s">
         <v>300</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>29425</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>18313600</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>201520459</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5809,31 +5809,31 @@
         <v>187</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>49.04</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>50.76</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>49.04</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1.560916278126907</v>
       </c>
       <c r="I115" t="s">
         <v>301</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>33704</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>7337100</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>367307115</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5847,31 +5847,31 @@
         <v>187</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>14.35</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>14.56</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2.353780313837376</v>
       </c>
       <c r="I116" t="s">
         <v>302</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>4042</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>748800</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>10754674</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5885,31 +5885,31 @@
         <v>187</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>-7.727272727272744</v>
       </c>
       <c r="I117" t="s">
         <v>303</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>69073</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>299626000</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>634005916</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5923,31 +5923,31 @@
         <v>187</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>39.86</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>41.75</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>41.75</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>39.65</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>-4.526946107784433</v>
       </c>
       <c r="I118" t="s">
         <v>304</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>4315</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>1620700</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>65117569</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5961,31 +5961,31 @@
         <v>187</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>21.54</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>21.58</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>-0.185356811862832</v>
       </c>
       <c r="I119" t="s">
         <v>305</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>230200</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>5011112</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5999,31 +5999,31 @@
         <v>187</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>75.36</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>76.62</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>74.77</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>-0.06630420368650997</v>
       </c>
       <c r="I120" t="s">
         <v>306</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>4971</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>709100</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>53620487</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6037,31 +6037,31 @@
         <v>187</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>27.97</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>26.82</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>-0.3322259136212619</v>
       </c>
       <c r="I121" t="s">
         <v>307</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>95122</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>64514600</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1765519784</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6075,31 +6075,31 @@
         <v>187</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>22.02</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>23.05</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>21.86</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2.587380844303224</v>
       </c>
       <c r="I122" t="s">
         <v>308</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>11197</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>5168500</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>116190294</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6113,31 +6113,31 @@
         <v>187</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>6.41</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>-4.113924050632922</v>
       </c>
       <c r="I123" t="s">
         <v>309</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1121</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>500800</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>3119176</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6151,31 +6151,31 @@
         <v>187</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>10.77</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>10.51</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3.10679611650484</v>
       </c>
       <c r="I124" t="s">
         <v>310</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>647000</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>6876482</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6189,31 +6189,31 @@
         <v>187</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>6.74</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>0.7473841554559016</v>
       </c>
       <c r="I125" t="s">
         <v>311</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>337100</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>2276301</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6227,31 +6227,31 @@
         <v>187</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>21.95</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>21.57</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>22.17</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>21.45</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1.47942672214517</v>
       </c>
       <c r="I126" t="s">
         <v>312</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>2630</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>646900</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>14144603</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6265,31 +6265,31 @@
         <v>187</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>-0.6968641114982584</v>
       </c>
       <c r="I127" t="s">
         <v>313</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>7528</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>8148800</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>23382868</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6303,31 +6303,31 @@
         <v>187</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>-5.168539325842706</v>
       </c>
       <c r="I128" t="s">
         <v>314</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>2337</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1256300</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>5512829</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6341,31 +6341,31 @@
         <v>187</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>73.8</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>69.78</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>-1.944444444444452</v>
       </c>
       <c r="I129" t="s">
         <v>315</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>17623</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3838800</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>276588708</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6379,31 +6379,31 @@
         <v>187</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>-1.999999999999999</v>
       </c>
       <c r="I130" t="s">
         <v>316</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1201400</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>10203641</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6417,31 +6417,31 @@
         <v>187</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>48.76</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>49.34</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>49.45</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>48.36</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>-1.23556815880089</v>
       </c>
       <c r="I131" t="s">
         <v>317</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>7938</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1245400</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>61062732</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6455,31 +6455,31 @@
         <v>187</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>7.42</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>7.42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="I132" t="s">
         <v>318</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>8276</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>4516000</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>34808366</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6493,31 +6493,31 @@
         <v>187</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>31.79</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>32.18</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>32.93</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>31.67</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>-1.517967781908308</v>
       </c>
       <c r="I133" t="s">
         <v>319</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>13473</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>11407700</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>364233643</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6531,31 +6531,31 @@
         <v>187</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>25.87</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>25.13</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>24.99</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3.314696485623011</v>
       </c>
       <c r="I134" t="s">
         <v>320</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>21819</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>6119000</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>158467142</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6569,31 +6569,31 @@
         <v>187</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>20.67</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>20.62</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>21.17</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>-0.8633093525179842</v>
       </c>
       <c r="I135" t="s">
         <v>321</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>34493</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>9335100</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>194460898</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6607,31 +6607,31 @@
         <v>187</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>14.47</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>13.85</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>-3.665283540802221</v>
       </c>
       <c r="I136" t="s">
         <v>322</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>8210</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2153400</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>30506830</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6645,31 +6645,31 @@
         <v>187</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>66.39</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>67.97</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>65.52</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>-1.352154531946503</v>
       </c>
       <c r="I137" t="s">
         <v>323</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>6621</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1400300</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>93839480</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6683,31 +6683,31 @@
         <v>187</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>67.78</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>68.47</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>65.25</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>-2.295956154643773</v>
       </c>
       <c r="I138" t="s">
         <v>324</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>20518</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>6573200</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>438825305</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6721,31 +6721,31 @@
         <v>187</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>18.55</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>19.16</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>18.55</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>-2.059134107708556</v>
       </c>
       <c r="I139" t="s">
         <v>325</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>482100</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>9062433</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6759,31 +6759,31 @@
         <v>187</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>16.47</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>16.79</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>-1.905896366885052</v>
       </c>
       <c r="I140" t="s">
         <v>326</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>2933</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>846400</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>13987696</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6797,31 +6797,31 @@
         <v>187</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>32.29</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>34.99</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>35.36</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>31.93</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>-5.805134189031511</v>
       </c>
       <c r="I141" t="s">
         <v>327</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2567</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>657900</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>22064276</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6835,31 +6835,31 @@
         <v>187</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>39.29</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>38.91</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>-3.22660098522168</v>
       </c>
       <c r="I142" t="s">
         <v>328</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>20354</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>4206200</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>167081703</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6873,31 +6873,31 @@
         <v>187</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>-0.9225092250922476</v>
       </c>
       <c r="I143" t="s">
         <v>329</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>11683</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>3668900</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>79998970</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6911,31 +6911,31 @@
         <v>187</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>40.96</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>41.51</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>40.31</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>-0.9272816007808576</v>
       </c>
       <c r="I144" t="s">
         <v>330</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>19075</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>3689300</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>150772818</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6949,31 +6949,31 @@
         <v>187</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>14.88</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>14.84</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>-0.7999999999999948</v>
       </c>
       <c r="I145" t="s">
         <v>331</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>2568</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>437600</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>6616076</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6987,31 +6987,31 @@
         <v>187</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>28.69</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>28.42</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2.836879432624116</v>
       </c>
       <c r="I146" t="s">
         <v>332</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>9090</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>2535200</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>74524542</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7025,31 +7025,31 @@
         <v>187</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>32.99</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>34.59</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>34.91</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>32.91</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>-4.735778226970836</v>
       </c>
       <c r="I147" t="s">
         <v>333</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>578000</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>19518852</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7063,31 +7063,31 @@
         <v>187</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>34.64</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>34.35</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>0.7855688100087377</v>
       </c>
       <c r="I148" t="s">
         <v>334</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>842400</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>29382169</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7101,31 +7101,31 @@
         <v>187</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>20.46</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>20.42</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>-2.333333333333326</v>
       </c>
       <c r="I149" t="s">
         <v>335</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>4678</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>872400</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>18105201</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7139,31 +7139,31 @@
         <v>187</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>31.24</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>30.09</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>0.3959089409435863</v>
       </c>
       <c r="I150" t="s">
         <v>336</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>8245</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1414600</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>43573773</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7177,31 +7177,31 @@
         <v>187</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>14.99</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>14.87</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4.93662441627752</v>
       </c>
       <c r="I151" t="s">
         <v>337</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>5960</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>1523000</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>23861702</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7215,31 +7215,31 @@
         <v>187</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>21.61</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>21.87</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>22.32</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>21.34</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>-1.188843164151813</v>
       </c>
       <c r="I152" t="s">
         <v>338</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>2802</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>599400</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>13062046</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7253,31 +7253,31 @@
         <v>187</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>-3.278688524590152</v>
       </c>
       <c r="I153" t="s">
         <v>339</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>9342</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>8698200</v>
       </c>
       <c r="L153">
-        <v>0</v>
+        <v>52363056</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7291,31 +7291,31 @@
         <v>187</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2.858918582970795</v>
       </c>
       <c r="I154" t="s">
         <v>340</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>39083</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>9213700</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>606441145</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7329,31 +7329,31 @@
         <v>187</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>32.15</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>32.47</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>32.04</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>-1.076923076923081</v>
       </c>
       <c r="I155" t="s">
         <v>341</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>12566</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>2443000</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>79018923</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7367,31 +7367,31 @@
         <v>187</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>17.78</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>18.15</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>18.66</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>-2.092511013215854</v>
       </c>
       <c r="I156" t="s">
         <v>342</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>4531</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>2671200</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>48148877</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7405,31 +7405,31 @@
         <v>187</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>28.82</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>28.31</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>28.06</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1.909476661951906</v>
       </c>
       <c r="I157" t="s">
         <v>343</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>4979</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>1567400</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>44988968</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7443,31 +7443,31 @@
         <v>187</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>13.39</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3.000000000000004</v>
       </c>
       <c r="I158" t="s">
         <v>344</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>616100</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>8082040</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7481,31 +7481,31 @@
         <v>187</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>25.17</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>25.46</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>24.61</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>-1.509134233518662</v>
       </c>
       <c r="I159" t="s">
         <v>345</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>2638</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>410400</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>10295030</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7519,31 +7519,31 @@
         <v>187</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>16.77</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>16.92</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>17.19</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>-1.003541912632832</v>
       </c>
       <c r="I160" t="s">
         <v>346</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>3235</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>898300</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>15181337</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7557,31 +7557,31 @@
         <v>187</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>13.22</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>-1.058201058201062</v>
       </c>
       <c r="I161" t="s">
         <v>347</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>10916</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>2999000</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>39653024</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7595,31 +7595,31 @@
         <v>187</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>30.11</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>30.19</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>30.95</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>29.95</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>0.1330229464582612</v>
       </c>
       <c r="I162" t="s">
         <v>348</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>29511</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>5172000</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>157353424</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7633,31 +7633,31 @@
         <v>187</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>10.49</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>10.76</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>0.7684918347742562</v>
       </c>
       <c r="I163" t="s">
         <v>349</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>5592</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1996600</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>21073627</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7671,31 +7671,31 @@
         <v>187</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>26.92</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>27.02</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>27.34</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>-0.6642066420664196</v>
       </c>
       <c r="I164" t="s">
         <v>350</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>5971</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>2143000</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>57924758</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7709,31 +7709,31 @@
         <v>187</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>21.26</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>21.22</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>21.78</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>21.12</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>0.1885014137606159</v>
       </c>
       <c r="I165" t="s">
         <v>351</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>4481</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>981500</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>21095591</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7747,31 +7747,31 @@
         <v>187</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>22.08</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>21.78</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>21.64</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.7759014148790422</v>
       </c>
       <c r="I166" t="s">
         <v>352</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>20848</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>6493400</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>144402168</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7785,31 +7785,31 @@
         <v>187</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>52.52</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>50.67</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>53.85</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>49.88</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>3.324808184143232</v>
       </c>
       <c r="I167" t="s">
         <v>353</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>634000</v>
       </c>
       <c r="L167">
-        <v>0</v>
+        <v>33371012</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7823,31 +7823,31 @@
         <v>187</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>13.52</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>-4.519774011299439</v>
       </c>
       <c r="I168" t="s">
         <v>354</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>27517</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>14917000</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>206460259</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7861,31 +7861,31 @@
         <v>187</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>91.75</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>94.16</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>91.36</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>-1.524095738971774</v>
       </c>
       <c r="I169" t="s">
         <v>355</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>61818</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>24921600</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>2307371901</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7899,31 +7899,31 @@
         <v>187</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>25.42</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>25.92</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>26.05</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>-1.966833783262623</v>
       </c>
       <c r="I170" t="s">
         <v>356</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2305</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>474300</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>12139931</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7937,31 +7937,31 @@
         <v>187</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>44.83</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>44.05</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>45.53</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>44.05</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1.563207974626184</v>
       </c>
       <c r="I171" t="s">
         <v>357</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>16665</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>3409900</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>153684200</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7975,31 +7975,31 @@
         <v>187</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>8.31</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>8.77</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>8.31</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>-4.701834862385322</v>
       </c>
       <c r="I172" t="s">
         <v>358</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>989700</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>8384058</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8013,31 +8013,31 @@
         <v>187</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>8.31</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>8.06</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>3.101736972704714</v>
       </c>
       <c r="I173" t="s">
         <v>359</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>4218</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>1326300</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>10996549</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8051,31 +8051,31 @@
         <v>187</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>14.52</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2.325581395348838</v>
       </c>
       <c r="I174" t="s">
         <v>360</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>56663</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>49850500</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>729921914</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8089,31 +8089,31 @@
         <v>187</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>88.95</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>88.98</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>88.45</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>-0.02247948746768126</v>
       </c>
       <c r="I175" t="s">
         <v>361</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>27550</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>5164300</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>463755410</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8127,31 +8127,31 @@
         <v>187</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>7.72</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>0.5167958656330753</v>
       </c>
       <c r="I176" t="s">
         <v>362</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>3929</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1487100</v>
       </c>
       <c r="L176">
-        <v>0</v>
+        <v>11726614</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8165,31 +8165,31 @@
         <v>187</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>33.44</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>33.98</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>33.98</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>33.13</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>0.2999400119975834</v>
       </c>
       <c r="I177" t="s">
         <v>363</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>16247</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>3143400</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>105183054</v>
       </c>
     </row>
   </sheetData>
